--- a/docs/testPlan/testSummaryReport/FirstSprintTestSummaryReport.xlsx
+++ b/docs/testPlan/testSummaryReport/FirstSprintTestSummaryReport.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dainius\Desktop\Žiemos Projektas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arbak\payapi\payapi\docs\testPlan\testSummaryReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary Report" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>2023.11.27</t>
   </si>
   <si>
-    <t>Windows 10</t>
-  </si>
-  <si>
     <t>Chrome,FireFox</t>
   </si>
   <si>
@@ -123,12 +120,15 @@
   </si>
   <si>
     <t>A few design inconsistencies have been found, but they do not affect the functionality of the website.</t>
+  </si>
+  <si>
+    <t>Windows 10, Windows 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,17 +492,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -518,7 +518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -526,7 +526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -542,23 +542,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -566,43 +566,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -610,59 +610,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
